--- a/output/1Y_P94_1VAL-D.xlsx
+++ b/output/1Y_P94_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>565.6525</v>
       </c>
-      <c r="G2" s="1">
-        <v>565.6525</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1297</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6787</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1297</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E3" s="1">
+        <v>565.6525</v>
+      </c>
       <c r="F3" s="1">
         <v>562.455</v>
       </c>
-      <c r="G3" s="1">
-        <v>1128.1075</v>
-      </c>
       <c r="H3" s="1">
-        <v>19952.8366</v>
+        <v>10004.6949</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7288</v>
+        <v>10004.6949</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6787</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19952.8366</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E4" s="1">
+        <v>1128.1075</v>
+      </c>
       <c r="F4" s="1">
         <v>555.3859</v>
       </c>
-      <c r="G4" s="1">
-        <v>1683.4933</v>
-      </c>
       <c r="H4" s="1">
-        <v>30155.0689</v>
+        <v>20206.8864</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8201</v>
+        <v>20206.8864</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.7288</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30155.0689</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0068</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E5" s="1">
+        <v>1683.4933</v>
+      </c>
       <c r="F5" s="1">
         <v>551.3773</v>
       </c>
-      <c r="G5" s="1">
-        <v>2234.8707</v>
-      </c>
       <c r="H5" s="1">
-        <v>40322.2067</v>
+        <v>30374.0913</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8981</v>
+        <v>30374.0913</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8201</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40322.2067</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E6" s="1">
+        <v>2234.8707</v>
+      </c>
       <c r="F6" s="1">
         <v>547.6301</v>
       </c>
-      <c r="G6" s="1">
-        <v>2782.5008</v>
-      </c>
       <c r="H6" s="1">
-        <v>50546.3527</v>
+        <v>40598.2133</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9694</v>
+        <v>40598.2133</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8981</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50546.3527</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0045</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E7" s="1">
+        <v>2782.5008</v>
+      </c>
       <c r="F7" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>3337.3751</v>
-      </c>
       <c r="H7" s="1">
-        <v>59834.4628</v>
+        <v>49886.3435</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9782</v>
+        <v>49886.3435</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9694</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59834.4628</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0118</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E8" s="1">
+        <v>3337.3751</v>
+      </c>
       <c r="F8" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G8" s="1">
-        <v>3884.2834</v>
-      </c>
       <c r="H8" s="1">
-        <v>70654.3382</v>
+        <v>60706.1851</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>18.0213</v>
+        <v>60706.1851</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9782</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70654.3382</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0117</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.485</v>
       </c>
+      <c r="E9" s="1">
+        <v>3884.2834</v>
+      </c>
       <c r="F9" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G9" s="1">
-        <v>4490.8955</v>
-      </c>
       <c r="H9" s="1">
-        <v>73648.8894</v>
+        <v>63700.6941</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8138</v>
+        <v>63700.6941</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.0213</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.538</v>
       </c>
-      <c r="L9" s="1">
-        <v>5376.6251</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-4623.3749</v>
+        <v>4619.5946</v>
       </c>
       <c r="O9" s="1">
-        <v>5376.6251</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79025.5145</v>
+        <v>-5380.4054</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0202</v>
+        <v>-0.09909999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E10" s="1">
+        <v>4490.8955</v>
+      </c>
       <c r="F10" s="1">
-        <v>668.227</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5159.1225</v>
+        <v>657.0788</v>
       </c>
       <c r="H10" s="1">
-        <v>87129.32460000001</v>
+        <v>75844.03909999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91344.1563</v>
+        <v>4619.5946</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7054</v>
+        <v>80463.63370000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81154.8986</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.071</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11344.1563</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>4032.4688</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91161.7934</v>
+        <v>-11154.8986</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.024</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.414</v>
       </c>
+      <c r="E11" s="1">
+        <v>5147.9743</v>
+      </c>
       <c r="F11" s="1">
-        <v>651.4389</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5810.5614</v>
+        <v>640.5707</v>
       </c>
       <c r="H11" s="1">
-        <v>100660.4219</v>
+        <v>89181.9623</v>
       </c>
       <c r="I11" s="1">
-        <v>102688.3125</v>
+        <v>3464.6959</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6727</v>
+        <v>92646.6583</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92309.79730000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.9313</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11344.1563</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2688.3125</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103348.7345</v>
+        <v>-11154.8986</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0216</v>
+        <v>0.0241</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E12" s="1">
+        <v>5788.545</v>
+      </c>
       <c r="F12" s="1">
-        <v>619.9873</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6430.5487</v>
+        <v>609.6439</v>
       </c>
       <c r="H12" s="1">
-        <v>117052.0627</v>
+        <v>105365.9908</v>
       </c>
       <c r="I12" s="1">
-        <v>114032.4688</v>
+        <v>2309.7973</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7329</v>
+        <v>107675.7881</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103464.6959</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.874</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11344.1563</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1344.1563</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118396.219</v>
+        <v>-11154.8986</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0445</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.699</v>
       </c>
+      <c r="E13" s="1">
+        <v>6398.1889</v>
+      </c>
       <c r="F13" s="1">
-        <v>640.949</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7071.4977</v>
+        <v>630.2559</v>
       </c>
       <c r="H13" s="1">
-        <v>124509.2743</v>
+        <v>112654.1924</v>
       </c>
       <c r="I13" s="1">
-        <v>125376.6251</v>
+        <v>1154.8986</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7299</v>
+        <v>113809.091</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114619.5946</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.9144</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11344.1563</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124509.2743</v>
+        <v>-11154.8986</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0303</v>
+        <v>-0.0329</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E14" s="1">
+        <v>7028.4448</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7071.4977</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6398.1889</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126271.6338</v>
       </c>
       <c r="I14" s="1">
-        <v>125376.6251</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7299</v>
+        <v>126271.6338</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114619.5946</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.308</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>127045.1133</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>127045.1133</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127045.1133</v>
+        <v>114948.5829</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0555</v>
+        <v>0.0199</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.6787</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.6525</v>
       </c>
       <c r="G2" s="1">
-        <v>565.6525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1297</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6787</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1297</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.7792</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>565.6525</v>
       </c>
       <c r="F3" s="1">
         <v>565.1215999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1130.774</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10004.6949</v>
       </c>
       <c r="I3" s="1">
-        <v>20047.4093</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7289</v>
+        <v>10004.6949</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10047.4093</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7625</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10047.4093</v>
       </c>
-      <c r="O3" s="1">
-        <v>-47.4093</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19952.5907</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.0055</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1130.774</v>
       </c>
       <c r="F4" s="1">
         <v>544.0621</v>
       </c>
       <c r="G4" s="1">
-        <v>1674.8361</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20254.6503</v>
       </c>
       <c r="I4" s="1">
-        <v>29843.52</v>
+        <v>-47.4093</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8188</v>
+        <v>20207.241</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19843.52</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.5486</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9796.110699999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>156.48</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30156.48</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0068</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.1364</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1674.8361</v>
       </c>
       <c r="F5" s="1">
         <v>542.1761</v>
       </c>
       <c r="G5" s="1">
-        <v>2217.0122</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30217.8962</v>
       </c>
       <c r="I5" s="1">
-        <v>39676.6426</v>
+        <v>156.48</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8964</v>
+        <v>30374.3762</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29676.6426</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.7191</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9833.122600000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>323.3574</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40323.3574</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.2605</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2217.0122</v>
       </c>
       <c r="F6" s="1">
         <v>535.4126</v>
       </c>
       <c r="G6" s="1">
-        <v>2752.4249</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40273.801</v>
       </c>
       <c r="I6" s="1">
-        <v>49453.5451</v>
+        <v>323.3574</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9673</v>
+        <v>40597.1584</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39453.5451</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7958</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9776.902599999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>546.4549</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50546.4549</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0044</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.0221</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2752.4249</v>
       </c>
       <c r="F7" s="1">
         <v>585.1957</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.6206</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59838.8639</v>
+        <v>49347.1248</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>546.4549</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9769</v>
+        <v>49893.5797</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.1658</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10546.4549</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59838.8639</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0117</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.2846</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3337.6206</v>
       </c>
       <c r="F8" s="1">
         <v>510.69</v>
       </c>
       <c r="G8" s="1">
-        <v>3848.3106</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60710.6504</v>
       </c>
       <c r="I8" s="1">
-        <v>69337.76300000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>18.0177</v>
+        <v>60710.6504</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59337.763</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7785</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9337.763000000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>662.237</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70662.23699999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0118</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.485</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3848.3106</v>
       </c>
       <c r="F9" s="1">
         <v>646.7842000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4495.0948</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73717.75599999999</v>
+        <v>63110.7544</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>662.237</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7972</v>
+        <v>63772.9913</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.538</v>
       </c>
-      <c r="L9" s="1">
-        <v>5326.8315</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-5335.4054</v>
+        <v>4619.9344</v>
       </c>
       <c r="O9" s="1">
-        <v>5326.8315</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79044.58749999999</v>
+        <v>-6042.3026</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0201</v>
+        <v>-0.09810000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.9765</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4495.0948</v>
       </c>
       <c r="F10" s="1">
         <v>834.0069</v>
       </c>
       <c r="G10" s="1">
-        <v>5329.1016</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>75914.9583</v>
       </c>
       <c r="I10" s="1">
-        <v>94158.5177</v>
+        <v>4619.9344</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6687</v>
+        <v>80534.8927</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84158.5177</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.7223</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-14158.5177</v>
       </c>
-      <c r="O10" s="1">
-        <v>1168.3138</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91168.3138</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0239</v>
+        <v>0.0917</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.414</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5329.1016</v>
       </c>
       <c r="F11" s="1">
         <v>443.3373</v>
       </c>
       <c r="G11" s="1">
-        <v>5772.4389</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92319.7579</v>
       </c>
       <c r="I11" s="1">
-        <v>101878.7931</v>
+        <v>461.4167</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6492</v>
+        <v>92781.1746</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91878.7931</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.241</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7720.2754</v>
       </c>
-      <c r="O11" s="1">
-        <v>3448.0384</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103448.0384</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0225</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.2974</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5772.4389</v>
       </c>
       <c r="F12" s="1">
         <v>270.687</v>
       </c>
       <c r="G12" s="1">
-        <v>6043.1259</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>105072.8193</v>
       </c>
       <c r="I12" s="1">
-        <v>106831.662</v>
+        <v>2741.1412</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6782</v>
+        <v>107813.9606</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96831.662</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7748</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4952.8689</v>
       </c>
-      <c r="O12" s="1">
-        <v>8495.1695</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118495.1695</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0445</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.699</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6043.1259</v>
       </c>
       <c r="F13" s="1">
         <v>772.2678</v>
       </c>
       <c r="G13" s="1">
-        <v>6815.3937</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>106402.5271</v>
       </c>
       <c r="I13" s="1">
-        <v>120500.0291</v>
+        <v>7788.2724</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6806</v>
+        <v>114190.7995</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110500.0291</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.2852</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13668.3671</v>
       </c>
-      <c r="O13" s="1">
-        <v>4826.8025</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124826.8025</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0285</v>
+        <v>-0.0308</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.0595</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6815.3937</v>
       </c>
       <c r="F14" s="1">
         <v>-6815.3937</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122444.0002</v>
       </c>
       <c r="I14" s="1">
-        <v>120500.0291</v>
+        <v>4119.9053</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6806</v>
+        <v>126563.9055</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110500.0291</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2133</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122444.0002</v>
       </c>
-      <c r="O14" s="1">
-        <v>127270.8026</v>
-      </c>
-      <c r="P14" s="1">
-        <v>127270.8026</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.056</v>
+        <v>0.0191</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.6787</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.6525</v>
       </c>
       <c r="G2" s="1">
-        <v>565.6525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1297</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6787</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1297</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.7792</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>565.6525</v>
       </c>
       <c r="F3" s="1">
         <v>562.455</v>
       </c>
       <c r="G3" s="1">
-        <v>1128.1075</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19952.8366</v>
+        <v>10004.6949</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7288</v>
+        <v>10004.6949</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6787</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19952.8366</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.0055</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1128.1075</v>
       </c>
       <c r="F4" s="1">
         <v>555.1168</v>
       </c>
       <c r="G4" s="1">
-        <v>1683.2243</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20206.8864</v>
       </c>
       <c r="I4" s="1">
-        <v>29995.156</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8201</v>
+        <v>20206.8864</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19995.156</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.7245</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9995.156000000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>4.844</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30155.094</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0068</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.1364</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1683.2243</v>
       </c>
       <c r="F5" s="1">
         <v>550.471</v>
       </c>
       <c r="G5" s="1">
-        <v>2233.6953</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30369.2375</v>
       </c>
       <c r="I5" s="1">
-        <v>39978.7191</v>
+        <v>4.844</v>
       </c>
       <c r="J5" s="1">
-        <v>17.898</v>
+        <v>30374.0814</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29978.7191</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8103</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9983.563099999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>21.2809</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40322.2821</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.2605</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2233.6953</v>
       </c>
       <c r="F6" s="1">
         <v>546.3918</v>
       </c>
       <c r="G6" s="1">
-        <v>2780.0871</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40576.8626</v>
       </c>
       <c r="I6" s="1">
-        <v>49956.1061</v>
+        <v>21.2809</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9693</v>
+        <v>40598.1435</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39956.1061</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8879</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9977.3869</v>
       </c>
-      <c r="O6" s="1">
-        <v>43.8939</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50546.4002</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0045</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.0221</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2780.0871</v>
       </c>
       <c r="F7" s="1">
         <v>557.3099</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.397</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59834.8551</v>
+        <v>49843.0696</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>43.8939</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9781</v>
+        <v>49886.9635</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.985</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10043.8939</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59834.8551</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0118</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.2846</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3337.397</v>
       </c>
       <c r="F8" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3884.3053</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70654.7362</v>
+        <v>60706.5831</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>18.0212</v>
+        <v>60706.5831</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9781</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70654.7362</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0117</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.485</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3884.3053</v>
       </c>
       <c r="F9" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4490.9174</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73649.2482</v>
+        <v>63701.0529</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8137</v>
+        <v>63701.0529</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.0212</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.538</v>
       </c>
-      <c r="L9" s="1">
-        <v>5376.6554</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-4623.3446</v>
+        <v>4619.6249</v>
       </c>
       <c r="O9" s="1">
-        <v>5376.6554</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79025.90360000001</v>
+        <v>-5380.3751</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0202</v>
+        <v>-0.09909999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.9765</v>
       </c>
       <c r="E10" s="1">
+        <v>4490.9174</v>
+      </c>
+      <c r="F10" s="1">
+        <v>861.1684</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>905.7612</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5396.6786</v>
-      </c>
       <c r="H10" s="1">
-        <v>91141.2665</v>
+        <v>75844.4086</v>
       </c>
       <c r="I10" s="1">
-        <v>95376.6554</v>
+        <v>4619.6249</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6732</v>
+        <v>80464.03350000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84619.6249</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.8424</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-15376.6554</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91141.2665</v>
+        <v>-14619.6249</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0238</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.414</v>
       </c>
       <c r="E11" s="1">
+        <v>5352.0857</v>
+      </c>
+      <c r="F11" s="1">
+        <v>551.98</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>507.3872</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5904.0658</v>
-      </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92717.92750000001</v>
       </c>
       <c r="I11" s="1">
-        <v>104212.2959</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6509</v>
+        <v>92717.92750000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94231.8052</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6066</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-8835.6405</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1164.3595</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103444.6236</v>
+        <v>-9612.180399999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0228</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.2974</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5904.0658</v>
       </c>
       <c r="F12" s="1">
         <v>292.4273</v>
       </c>
       <c r="G12" s="1">
-        <v>6196.4931</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>107468.7571</v>
       </c>
       <c r="I12" s="1">
-        <v>109562.9556</v>
+        <v>387.8196</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6814</v>
+        <v>107856.5767</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99582.46490000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8668</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5350.6597</v>
       </c>
-      <c r="O12" s="1">
-        <v>5813.6998</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118605.3652</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0455</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.699</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6196.4931</v>
       </c>
       <c r="F13" s="1">
         <v>809.4831</v>
       </c>
       <c r="G13" s="1">
-        <v>7005.9762</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>109102.8931</v>
       </c>
       <c r="I13" s="1">
-        <v>123889.9968</v>
+        <v>5037.1599</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6835</v>
+        <v>114140.053</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113909.5061</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.3829</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14327.0412</v>
       </c>
-      <c r="O13" s="1">
-        <v>1486.6586</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124842.2823</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0293</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.0595</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7005.9762</v>
       </c>
       <c r="F14" s="1">
         <v>-7005.9762</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125867.9668</v>
       </c>
       <c r="I14" s="1">
-        <v>123889.9968</v>
+        <v>710.1187</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6835</v>
+        <v>126578.0855</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113909.5061</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2589</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125867.9668</v>
       </c>
-      <c r="O14" s="1">
-        <v>127354.6254</v>
-      </c>
-      <c r="P14" s="1">
-        <v>127354.6254</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0555</v>
+        <v>0.0196</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.6787</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.6525</v>
       </c>
       <c r="G2" s="1">
-        <v>565.6525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1297</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6787</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1297</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.7792</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>565.6525</v>
       </c>
       <c r="F3" s="1">
         <v>562.455</v>
       </c>
       <c r="G3" s="1">
-        <v>1128.1075</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19952.8366</v>
+        <v>10004.6949</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7288</v>
+        <v>10004.6949</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6787</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19952.8366</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.0055</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1128.1075</v>
       </c>
       <c r="F4" s="1">
         <v>555.3859</v>
       </c>
       <c r="G4" s="1">
-        <v>1683.4933</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30155.0689</v>
+        <v>20206.8864</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8201</v>
+        <v>20206.8864</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.7288</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30155.0689</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0068</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.1364</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1683.4933</v>
       </c>
       <c r="F5" s="1">
         <v>551.3773</v>
       </c>
       <c r="G5" s="1">
-        <v>2234.8707</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40322.2067</v>
+        <v>30374.0913</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8981</v>
+        <v>30374.0913</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8201</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40322.2067</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.2605</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2234.8707</v>
       </c>
       <c r="F6" s="1">
         <v>547.6301</v>
       </c>
       <c r="G6" s="1">
-        <v>2782.5008</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50546.3527</v>
+        <v>40598.2133</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9694</v>
+        <v>40598.2133</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8981</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50546.3527</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0045</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.0221</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2782.5008</v>
       </c>
       <c r="F7" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.3751</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59834.4628</v>
+        <v>49886.3435</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9782</v>
+        <v>49886.3435</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9694</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59834.4628</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0118</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.2846</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3337.3751</v>
       </c>
       <c r="F8" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3884.2834</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70654.3382</v>
+        <v>60706.1851</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>18.0213</v>
+        <v>60706.1851</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9782</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70654.3382</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0117</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.485</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3884.2834</v>
       </c>
       <c r="F9" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4490.8955</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73648.8894</v>
+        <v>63700.6941</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8138</v>
+        <v>63700.6941</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.0213</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.538</v>
       </c>
-      <c r="L9" s="1">
-        <v>5376.6251</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-4623.3749</v>
+        <v>4619.5946</v>
       </c>
       <c r="O9" s="1">
-        <v>5376.6251</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79025.5145</v>
+        <v>-5380.4054</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0202</v>
+        <v>-0.09909999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.9765</v>
       </c>
       <c r="E10" s="1">
+        <v>4490.8955</v>
+      </c>
+      <c r="F10" s="1">
+        <v>861.1666</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>905.7594</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5396.6549</v>
-      </c>
       <c r="H10" s="1">
-        <v>91140.8668</v>
+        <v>75844.03909999999</v>
       </c>
       <c r="I10" s="1">
-        <v>95376.6251</v>
+        <v>4619.5946</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6733</v>
+        <v>80463.63370000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84619.5946</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.8425</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-15376.6251</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91140.8668</v>
+        <v>-14619.5946</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0238</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.414</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5352.0621</v>
       </c>
       <c r="F11" s="1">
         <v>574.2506</v>
       </c>
       <c r="G11" s="1">
-        <v>5970.9055</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>103438.1758</v>
+        <v>92717.5175</v>
       </c>
       <c r="I11" s="1">
-        <v>105376.6251</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6483</v>
+        <v>92717.5175</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94619.5946</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6791</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103438.1758</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0227</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.2974</v>
       </c>
       <c r="E12" s="1">
+        <v>5926.3127</v>
+      </c>
+      <c r="F12" s="1">
+        <v>428.2181</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>383.6253</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6354.5308</v>
-      </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107873.7063</v>
       </c>
       <c r="I12" s="1">
-        <v>112395.9702</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6875</v>
+        <v>107873.7063</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102454.8729</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2881</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-7019.3451</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2980.6549</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118649.0016</v>
+        <v>-7835.2783</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0459</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.699</v>
       </c>
       <c r="E13" s="1">
+        <v>6354.5308</v>
+      </c>
+      <c r="F13" s="1">
+        <v>687.3112</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>733.4118</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7087.9426</v>
-      </c>
       <c r="H13" s="1">
-        <v>124798.8222</v>
+        <v>111885.4945</v>
       </c>
       <c r="I13" s="1">
-        <v>125376.6251</v>
+        <v>2164.7217</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6887</v>
+        <v>114050.2162</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114619.5946</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.0375</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12980.6549</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124798.8222</v>
+        <v>-12164.7217</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0299</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>18.0595</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7041.842</v>
       </c>
       <c r="F14" s="1">
-        <v>-7087.9426</v>
+        <v>-7041.842</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126512.3256</v>
       </c>
       <c r="I14" s="1">
-        <v>125376.6251</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6887</v>
+        <v>126512.3256</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114619.5946</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2769</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>127340.5584</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>127340.5584</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127340.5584</v>
+        <v>126512.3256</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0553</v>
+        <v>0.0198</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.6787</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.6525</v>
       </c>
       <c r="G2" s="1">
-        <v>565.6525</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1297</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6787</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1297</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.7792</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>565.6525</v>
       </c>
       <c r="F3" s="1">
         <v>562.455</v>
       </c>
       <c r="G3" s="1">
-        <v>1128.1075</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19952.8366</v>
+        <v>10004.6949</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7288</v>
+        <v>10004.6949</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6787</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19952.8366</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.0055</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1128.1075</v>
       </c>
       <c r="F4" s="1">
         <v>555.3859</v>
       </c>
       <c r="G4" s="1">
-        <v>1683.4933</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30155.0689</v>
+        <v>20206.8864</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8201</v>
+        <v>20206.8864</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.7288</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30155.0689</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0068</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.1364</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1683.4933</v>
       </c>
       <c r="F5" s="1">
         <v>551.3773</v>
       </c>
       <c r="G5" s="1">
-        <v>2234.8707</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40322.2067</v>
+        <v>30374.0913</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8981</v>
+        <v>30374.0913</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8201</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40322.2067</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0042</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.2605</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2234.8707</v>
       </c>
       <c r="F6" s="1">
         <v>547.6301</v>
       </c>
       <c r="G6" s="1">
-        <v>2782.5008</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50546.3527</v>
+        <v>40598.2133</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9694</v>
+        <v>40598.2133</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8981</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50546.3527</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0045</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.0221</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2782.5008</v>
       </c>
       <c r="F7" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.3751</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59834.4628</v>
+        <v>49886.3435</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9782</v>
+        <v>49886.3435</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9694</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59834.4628</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0118</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.2846</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3337.3751</v>
       </c>
       <c r="F8" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3884.2834</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70654.3382</v>
+        <v>60706.1851</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>18.0213</v>
+        <v>60706.1851</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9782</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70654.3382</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0117</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.485</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3884.2834</v>
       </c>
       <c r="F9" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4490.8955</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73648.8894</v>
+        <v>63700.6941</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8138</v>
+        <v>63700.6941</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.0213</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.538</v>
       </c>
-      <c r="L9" s="1">
-        <v>5376.6251</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-4623.3749</v>
+        <v>4619.5946</v>
       </c>
       <c r="O9" s="1">
-        <v>5376.6251</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79025.5145</v>
+        <v>-5380.4054</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0202</v>
+        <v>-0.09909999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.9765</v>
       </c>
       <c r="E10" s="1">
+        <v>4490.8955</v>
+      </c>
+      <c r="F10" s="1">
+        <v>861.1666</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>905.7594</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5396.6549</v>
-      </c>
       <c r="H10" s="1">
-        <v>91140.8668</v>
+        <v>75844.03909999999</v>
       </c>
       <c r="I10" s="1">
-        <v>95376.6251</v>
+        <v>4619.5946</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6733</v>
+        <v>80463.63370000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84619.5946</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.8425</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-15376.6251</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91140.8668</v>
+        <v>-14619.5946</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0238</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.414</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5352.0621</v>
       </c>
       <c r="F11" s="1">
         <v>574.2506</v>
       </c>
       <c r="G11" s="1">
-        <v>5970.9055</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>103438.1758</v>
+        <v>92717.5175</v>
       </c>
       <c r="I11" s="1">
-        <v>105376.6251</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6483</v>
+        <v>92717.5175</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94619.5946</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6791</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103438.1758</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0227</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.2974</v>
       </c>
       <c r="E12" s="1">
+        <v>5926.3127</v>
+      </c>
+      <c r="F12" s="1">
+        <v>546.5257</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>546.4752999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6517.3809</v>
-      </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>107873.7063</v>
       </c>
       <c r="I12" s="1">
-        <v>115375.7029</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7028</v>
+        <v>107873.7063</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104619.5946</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6534</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-9999.077799999999</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0.9222</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118633.5471</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0458</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.699</v>
       </c>
       <c r="E13" s="1">
+        <v>6472.8384</v>
+      </c>
+      <c r="F13" s="1">
+        <v>565.0037</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>565.0558</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7082.4366</v>
-      </c>
       <c r="H13" s="1">
-        <v>124701.8782</v>
+        <v>113968.5603</v>
       </c>
       <c r="I13" s="1">
-        <v>125376.6251</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7025</v>
+        <v>113968.5603</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114619.5946</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7078</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000.9222</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124701.8782</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0306</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.0595</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7037.8421</v>
       </c>
       <c r="F14" s="1">
-        <v>-7082.4366</v>
+        <v>-7037.8421</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126440.4631</v>
       </c>
       <c r="I14" s="1">
-        <v>125376.6251</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7025</v>
+        <v>126440.4631</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114619.5946</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2862</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>127241.6399</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>127241.6399</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127241.6399</v>
+        <v>126440.4631</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0554</v>
+        <v>0.0199</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.0108</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.7299</v>
+        <v>16.308</v>
       </c>
       <c r="D3" s="1">
-        <v>17.6806</v>
+        <v>16.2133</v>
       </c>
       <c r="E3" s="1">
-        <v>17.6835</v>
+        <v>16.2589</v>
       </c>
       <c r="F3" s="1">
-        <v>17.6887</v>
+        <v>16.2769</v>
       </c>
       <c r="G3" s="1">
-        <v>17.7025</v>
+        <v>16.2862</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0296</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0002</v>
+        <v>0.0741</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0019</v>
+        <v>0.0771</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0026</v>
+        <v>0.077</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0025</v>
+        <v>0.0765</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0017</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1261</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0883</v>
+        <v>0.151</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0882</v>
+        <v>0.1497</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0886</v>
+        <v>0.151</v>
       </c>
       <c r="F5" s="3">
-        <v>0.089</v>
+        <v>0.1513</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0891</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.0735</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.2329</v>
+        <v>0.3564</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.2084</v>
+        <v>0.3791</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.1995</v>
+        <v>0.3755</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.1999</v>
+        <v>0.3713</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.2087</v>
+        <v>0.3669</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1121</v>
+        <v>-0.0779</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1175</v>
+        <v>0.1054</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1172</v>
+        <v>0.1042</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1161</v>
+        <v>0.1026</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1141</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5376.6251</v>
+        <v>4619.5946</v>
       </c>
       <c r="D8" s="1">
-        <v>5326.8315</v>
+        <v>4619.9344</v>
       </c>
       <c r="E8" s="1">
-        <v>5376.6554</v>
+        <v>4619.6249</v>
       </c>
       <c r="F8" s="1">
-        <v>5376.6251</v>
+        <v>4619.5946</v>
       </c>
       <c r="G8" s="1">
-        <v>5376.6251</v>
+        <v>4619.5946</v>
       </c>
     </row>
   </sheetData>
